--- a/main_center/utils/download_template/func_template_01.xlsx
+++ b/main_center/utils/download_template/func_template_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/PycharmProjects/graduation/main_center/utils/download_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\graduation\main_center\utils\download_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289D812F-C3D6-8B4E-A0AD-AD81737C9EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251DD7F8-37A2-4A7F-89F1-A4EB1AA00CDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15940" xr2:uid="{903356C9-F5F4-B445-92C8-5AAA8B251838}"/>
+    <workbookView xWindow="3096" yWindow="2076" windowWidth="19200" windowHeight="9816" xr2:uid="{903356C9-F5F4-B445-92C8-5AAA8B251838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -415,12 +415,12 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
